--- a/ASISTENCIA.xlsx
+++ b/ASISTENCIA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>NRO</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>BARRIENTOS CONDOR LUIS AUGUSTO</t>
+  </si>
+  <si>
+    <t>HUALPA CANALES HEBER</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -456,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +505,9 @@
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
@@ -513,7 +521,9 @@
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
@@ -541,7 +551,9 @@
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
@@ -555,7 +567,9 @@
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
@@ -569,7 +583,9 @@
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
@@ -583,7 +599,9 @@
       <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
@@ -611,7 +629,9 @@
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
@@ -625,7 +645,9 @@
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
@@ -639,7 +661,9 @@
       <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
@@ -653,7 +677,9 @@
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
@@ -667,9 +693,27 @@
       <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ASISTENCIA.xlsx
+++ b/ASISTENCIA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>NRO</t>
   </si>
@@ -465,7 +465,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +508,9 @@
       <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -524,7 +526,9 @@
       <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -538,7 +542,9 @@
         <v>18</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -554,7 +560,9 @@
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -570,7 +578,9 @@
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -586,7 +596,9 @@
       <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -602,7 +614,9 @@
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -632,7 +646,9 @@
       <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -648,7 +664,9 @@
       <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -664,7 +682,9 @@
       <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -696,7 +716,9 @@
       <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -712,7 +734,9 @@
       <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F15" s="3"/>
     </row>
   </sheetData>

--- a/ASISTENCIA.xlsx
+++ b/ASISTENCIA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
   <si>
     <t>NRO</t>
   </si>
@@ -465,7 +465,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +511,9 @@
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -529,7 +531,9 @@
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -545,7 +549,9 @@
       <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -563,7 +569,9 @@
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -581,7 +589,9 @@
       <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -617,7 +627,9 @@
       <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -649,7 +661,9 @@
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -667,7 +681,9 @@
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -701,7 +717,9 @@
         <v>18</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -719,7 +737,9 @@
       <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -737,7 +757,9 @@
       <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ASISTENCIA.xlsx
+++ b/ASISTENCIA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
   <si>
     <t>NRO</t>
   </si>
@@ -465,7 +465,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +609,9 @@
       <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
